--- a/academias/Lectura, Expresión Oral y Escrita - Estadisticos 2020.xlsx
+++ b/academias/Lectura, Expresión Oral y Escrita - Estadisticos 2020.xlsx
@@ -464,6 +464,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -900,6 +901,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1303,6 +1305,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">

--- a/academias/Lectura, Expresión Oral y Escrita - Estadisticos 2020.xlsx
+++ b/academias/Lectura, Expresión Oral y Escrita - Estadisticos 2020.xlsx
@@ -516,25 +516,25 @@
         <v>40</v>
       </c>
       <c r="E2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>92.5</v>
+        <v>95</v>
       </c>
       <c r="H2">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>7.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -726,25 +726,25 @@
         <v>39</v>
       </c>
       <c r="E8">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F8">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G8">
-        <v>56.41</v>
+        <v>66.67</v>
       </c>
       <c r="H8">
-        <v>43.59</v>
+        <v>33.33</v>
       </c>
       <c r="I8">
-        <v>8.6</v>
+        <v>7.9</v>
       </c>
       <c r="J8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K8">
-        <v>43.59</v>
+        <v>23.08</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -773,13 +773,13 @@
         <v>40</v>
       </c>
       <c r="I9">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="J9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K9">
-        <v>40</v>
+        <v>31.43</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -953,22 +953,25 @@
         <v>40</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F2">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>37.5</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1017,22 +1020,25 @@
         <v>31</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>16.13</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>83.87</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
       </c>
       <c r="J4">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>83.87</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1145,22 +1151,25 @@
         <v>39</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F8">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>61.54</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>38.46</v>
+      </c>
+      <c r="I8">
+        <v>7.4</v>
       </c>
       <c r="J8">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1177,22 +1186,25 @@
         <v>35</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F9">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>51.43</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>48.57</v>
+      </c>
+      <c r="I9">
+        <v>7.3</v>
       </c>
       <c r="J9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>45.71</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1357,25 +1369,25 @@
         <v>40</v>
       </c>
       <c r="E2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>92.5</v>
+        <v>95</v>
       </c>
       <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
         <v>7.5</v>
       </c>
-      <c r="I2">
-        <v>7.2</v>
-      </c>
       <c r="J2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>7.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1439,7 +1451,7 @@
         <v>38.71</v>
       </c>
       <c r="I4">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="J4">
         <v>12</v>
@@ -1567,25 +1579,25 @@
         <v>39</v>
       </c>
       <c r="E8">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F8">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G8">
-        <v>56.41</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="H8">
-        <v>43.59</v>
+        <v>35.9</v>
       </c>
       <c r="I8">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="J8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K8">
-        <v>43.59</v>
+        <v>23.08</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1614,13 +1626,13 @@
         <v>40</v>
       </c>
       <c r="I9">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="J9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K9">
-        <v>40</v>
+        <v>31.43</v>
       </c>
     </row>
     <row r="10" spans="1:11">

--- a/academias/Lectura, Expresión Oral y Escrita - Estadisticos 2020.xlsx
+++ b/academias/Lectura, Expresión Oral y Escrita - Estadisticos 2020.xlsx
@@ -598,13 +598,13 @@
         <v>38.71</v>
       </c>
       <c r="I4">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4">
-        <v>38.71</v>
+        <v>35.48</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -633,13 +633,13 @@
         <v>38.1</v>
       </c>
       <c r="I5">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K5">
-        <v>38.1</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -843,13 +843,13 @@
         <v>17.39</v>
       </c>
       <c r="I11">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>8.699999999999999</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -866,25 +866,25 @@
         <v>39</v>
       </c>
       <c r="E12">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G12">
-        <v>53.85</v>
+        <v>61.54</v>
       </c>
       <c r="H12">
-        <v>46.15</v>
+        <v>38.46</v>
       </c>
       <c r="I12">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K12">
-        <v>46.15</v>
+        <v>38.46</v>
       </c>
     </row>
   </sheetData>
@@ -953,25 +953,25 @@
         <v>40</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G2">
-        <v>62.5</v>
+        <v>72.5</v>
       </c>
       <c r="H2">
-        <v>37.5</v>
+        <v>27.5</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K2">
-        <v>37.5</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -988,22 +988,25 @@
         <v>36</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>13.89</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>86.11</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
       </c>
       <c r="J3">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>86.11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1020,25 +1023,25 @@
         <v>31</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>16.13</v>
+        <v>41.94</v>
       </c>
       <c r="H4">
-        <v>83.87</v>
+        <v>58.06</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>83.87</v>
+        <v>58.06</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1055,22 +1058,25 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>42.86</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>57.14</v>
+      </c>
+      <c r="I5">
+        <v>8.300000000000001</v>
       </c>
       <c r="J5">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>57.14</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1087,22 +1093,25 @@
         <v>41</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F6">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>63.41</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>36.59</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
       </c>
       <c r="J6">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>36.59</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1221,22 +1230,25 @@
         <v>36</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F10">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <v>8.300000000000001</v>
       </c>
       <c r="J10">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1253,22 +1265,25 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F11">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>30.43</v>
+      </c>
+      <c r="I11">
+        <v>6.6</v>
       </c>
       <c r="J11">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>100</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1285,22 +1300,25 @@
         <v>39</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F12">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>56.41</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>43.59</v>
+      </c>
+      <c r="I12">
+        <v>8.1</v>
       </c>
       <c r="J12">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="K12">
-        <v>100</v>
+        <v>43.59</v>
       </c>
     </row>
   </sheetData>
@@ -1416,7 +1434,7 @@
         <v>50</v>
       </c>
       <c r="I3">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="J3">
         <v>18</v>
@@ -1439,25 +1457,25 @@
         <v>31</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>61.29</v>
+        <v>64.52</v>
       </c>
       <c r="H4">
-        <v>38.71</v>
+        <v>35.48</v>
       </c>
       <c r="I4">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="J4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4">
-        <v>38.71</v>
+        <v>35.48</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1474,25 +1492,25 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5">
-        <v>61.9</v>
+        <v>66.67</v>
       </c>
       <c r="H5">
-        <v>38.1</v>
+        <v>33.33</v>
       </c>
       <c r="I5">
         <v>8</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K5">
-        <v>38.1</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1521,7 +1539,7 @@
         <v>19.51</v>
       </c>
       <c r="I6">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="J6">
         <v>8</v>
@@ -1661,7 +1679,7 @@
         <v>41.67</v>
       </c>
       <c r="I10">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J10">
         <v>15</v>
@@ -1684,25 +1702,25 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>82.61</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="H11">
-        <v>17.39</v>
+        <v>30.43</v>
       </c>
       <c r="I11">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>8.699999999999999</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1719,25 +1737,25 @@
         <v>39</v>
       </c>
       <c r="E12">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G12">
-        <v>53.85</v>
+        <v>61.54</v>
       </c>
       <c r="H12">
-        <v>46.15</v>
+        <v>38.46</v>
       </c>
       <c r="I12">
         <v>8.199999999999999</v>
       </c>
       <c r="J12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K12">
-        <v>46.15</v>
+        <v>38.46</v>
       </c>
     </row>
   </sheetData>

--- a/academias/Lectura, Expresión Oral y Escrita - Estadisticos 2020.xlsx
+++ b/academias/Lectura, Expresión Oral y Escrita - Estadisticos 2020.xlsx
@@ -691,25 +691,25 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="H7">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I7">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="J7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K7">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1128,22 +1128,25 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>44</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
       </c>
       <c r="J7">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1562,25 +1565,25 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="H7">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I7">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="J7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K7">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:11">

--- a/academias/Lectura, Expresión Oral y Escrita - Estadisticos 2020.xlsx
+++ b/academias/Lectura, Expresión Oral y Escrita - Estadisticos 2020.xlsx
@@ -988,25 +988,25 @@
         <v>36</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3">
-        <v>13.89</v>
+        <v>19.44</v>
       </c>
       <c r="H3">
-        <v>86.11</v>
+        <v>80.56</v>
       </c>
       <c r="I3">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="J3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K3">
-        <v>86.11</v>
+        <v>80.56</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1058,25 +1058,25 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>42.86</v>
+        <v>47.62</v>
       </c>
       <c r="H5">
-        <v>57.14</v>
+        <v>52.38</v>
       </c>
       <c r="I5">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K5">
-        <v>57.14</v>
+        <v>52.38</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1437,7 +1437,7 @@
         <v>50</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="J3">
         <v>18</v>

--- a/academias/Lectura, Expresión Oral y Escrita - Estadisticos 2020.xlsx
+++ b/academias/Lectura, Expresión Oral y Escrita - Estadisticos 2020.xlsx
@@ -551,25 +551,25 @@
         <v>36</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F3">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="J3">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -586,25 +586,25 @@
         <v>31</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>61.29</v>
+        <v>96.77</v>
       </c>
       <c r="H4">
-        <v>38.71</v>
+        <v>3.23</v>
       </c>
       <c r="I4">
-        <v>8.699999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="J4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>35.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -621,25 +621,25 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>61.9</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="H5">
-        <v>38.1</v>
+        <v>4.76</v>
       </c>
       <c r="I5">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>33.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -776,10 +776,10 @@
         <v>6.8</v>
       </c>
       <c r="J9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K9">
-        <v>31.43</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -988,25 +988,25 @@
         <v>36</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="F3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>19.44</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>80.56</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>8.6</v>
+        <v>6.5</v>
       </c>
       <c r="J3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>80.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1023,25 +1023,25 @@
         <v>31</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>41.94</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>58.06</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>9</v>
+        <v>7.3</v>
       </c>
       <c r="J4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>58.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1058,25 +1058,25 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>47.62</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>52.38</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="J5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>52.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1198,25 +1198,25 @@
         <v>35</v>
       </c>
       <c r="E9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G9">
-        <v>51.43</v>
+        <v>60</v>
       </c>
       <c r="H9">
-        <v>48.57</v>
+        <v>40</v>
       </c>
       <c r="I9">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="J9">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K9">
-        <v>45.71</v>
+        <v>37.14</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1425,25 +1425,25 @@
         <v>36</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F3">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>8.1</v>
+        <v>6.8</v>
       </c>
       <c r="J3">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1460,25 +1460,25 @@
         <v>31</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>64.52</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>35.48</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="J4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>35.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1495,25 +1495,25 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>66.67</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>33.33</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>33.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1635,25 +1635,25 @@
         <v>35</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9">
-        <v>60</v>
+        <v>62.86</v>
       </c>
       <c r="H9">
-        <v>40</v>
+        <v>37.14</v>
       </c>
       <c r="I9">
         <v>7</v>
       </c>
       <c r="J9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K9">
-        <v>31.43</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="10" spans="1:11">
